--- a/Doc/Excel/Role.xlsx
+++ b/Doc/Excel/Role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <t>主角</t>
   </si>
   <si>
-    <t>mainrole.png</t>
+    <t>Image/Role/male_young_5</t>
   </si>
   <si>
     <t>TableName: "Role" Package: "table"</t>
@@ -177,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -217,15 +217,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +261,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,15 +269,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,11 +283,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,6 +298,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -293,13 +314,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -307,36 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -348,6 +341,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,181 +374,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,17 +577,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +602,36 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,26 +651,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,30 +674,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -682,145 +682,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,13 +1162,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="20.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>

--- a/Doc/Excel/Role.xlsx
+++ b/Doc/Excel/Role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="14070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>ID</t>
   </si>
@@ -170,6 +170,27 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>AttrType</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>敏捷</t>
   </si>
 </sst>
 </file>
@@ -177,8 +198,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -210,12 +231,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -239,7 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,14 +291,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,9 +311,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,71 +366,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,6 +389,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,175 +473,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,11 +598,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,17 +632,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -621,6 +652,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -636,41 +685,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,10 +703,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,133 +715,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1182,7 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1238,13 +1259,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="3" width="11.625" customWidth="1"/>
@@ -1305,6 +1326,57 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
